--- a/medicine/Mort/Le_Magasin_des_suicides/Le_Magasin_des_suicides.xlsx
+++ b/medicine/Mort/Le_Magasin_des_suicides/Le_Magasin_des_suicides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Magasin des Suicides est un roman de Jean Teulé, publié en 2007.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Tuvache est composée de quatre personnes : les parents, des commerçants qui vendent des produits permettant de se suicider, faisant tout pour écouler leur marchandise ; le fils aîné, dépressif et extrêmement craintif, qui s'isole du monde extérieur ; la sœur, une adolescente mal dans sa peau et complexée.
 Mais tout est chamboulé lors de la naissance du petit dernier, Alan, avec sa « cruelle » joie de vivre…
@@ -544,7 +558,9 @@
           <t>Livre audio</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Teulé, Le Magasin des suicides, Paris, Audiolib, 21 janvier 2009 (ISBN 978-2-35641-046-7, BNF 41406814, présentation en ligne)
 Texte intégral ; narrateur : Thierry Fréret ; support : 1 disque compact audio MP3 ; durée : 3 h 35 min environ ; référence éditeur : Audiolib 25 0047 8.</t>
@@ -577,12 +593,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cinéma
-Un film d'animation adapté du roman est réalisé par Patrice Leconte en 2012.
-Au théâtre
-Adaptation par Franck Regnier en 2016 (Cie Nandi) - Festival Off d'Avignon en 2017, 2018 et 2019 au Théâtre Notre-Dame.
-En bande dessinée
-Le Magasin des suicides, éd. Delcourt, 2012. Scénario Olivier Ka, dessin Domitille Collardey, couleur Dominique Collardey &amp; Max de Radiguès.
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un film d'animation adapté du roman est réalisé par Patrice Leconte en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Magasin_des_suicides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Magasin_des_suicides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adaptation par Franck Regnier en 2016 (Cie Nandi) - Festival Off d'Avignon en 2017, 2018 et 2019 au Théâtre Notre-Dame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Magasin_des_suicides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Magasin_des_suicides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Magasin des suicides, éd. Delcourt, 2012. Scénario Olivier Ka, dessin Domitille Collardey, couleur Dominique Collardey &amp; Max de Radiguès.
  Portail sur la mort   Portail de la littérature française                    </t>
         </is>
       </c>
